--- a/public/template/arsip_surat_keluar_template.xlsx
+++ b/public/template/arsip_surat_keluar_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\siarsip\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C5EC4-8469-40D5-9130-90DFC53729F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913C5A5E-4BC8-4C8B-BAA8-24562AF63A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0774F4C-673A-4A93-9126-FFF8B3DF503B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Tujuan Surat</t>
+  </si>
+  <si>
+    <t>OPD_id</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,16 +124,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF4C07-4C94-4F5D-AD1B-3CEC2F6328F8}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,7 +484,7 @@
     <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +518,11 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -515,7 +535,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -528,7 +548,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -541,7 +561,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -554,7 +574,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -567,7 +587,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -580,7 +600,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -593,7 +613,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -606,7 +626,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -619,7 +639,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -632,7 +652,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -645,7 +665,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -658,7 +678,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -671,7 +691,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -684,7 +704,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/public/template/arsip_surat_keluar_template.xlsx
+++ b/public/template/arsip_surat_keluar_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\siarsip\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913C5A5E-4BC8-4C8B-BAA8-24562AF63A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4093E05E-C1CD-49F0-9158-C1D537EBE63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0774F4C-673A-4A93-9126-FFF8B3DF503B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Tujuan Surat</t>
-  </si>
-  <si>
-    <t>OPD_id</t>
   </si>
 </sst>
 </file>
@@ -101,7 +98,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,30 +121,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF4C07-4C94-4F5D-AD1B-3CEC2F6328F8}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,7 +467,7 @@
     <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,11 +501,8 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -535,7 +515,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -548,7 +528,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -561,7 +541,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -574,7 +554,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -587,7 +567,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -600,7 +580,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -613,7 +593,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -626,7 +606,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -639,7 +619,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -652,7 +632,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -665,7 +645,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -678,7 +658,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -691,7 +671,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -704,7 +684,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>

--- a/public/template/arsip_surat_keluar_template.xlsx
+++ b/public/template/arsip_surat_keluar_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\siarsip\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4093E05E-C1CD-49F0-9158-C1D537EBE63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFA3D43-C97F-4D6B-85DA-A329EE3437D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0774F4C-673A-4A93-9126-FFF8B3DF503B}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Urutan</t>
   </si>
@@ -447,35 +444,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF4C07-4C94-4F5D-AD1B-3CEC2F6328F8}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -490,19 +484,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -513,9 +504,8 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -526,9 +516,8 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -539,9 +528,8 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -552,9 +540,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -565,9 +552,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -578,9 +564,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -591,9 +576,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -604,9 +588,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -617,9 +600,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -630,9 +612,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -643,9 +624,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -656,9 +636,8 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -669,9 +648,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -682,9 +660,8 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -695,9 +672,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -708,9 +684,8 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -721,9 +696,8 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -734,9 +708,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -747,9 +720,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -760,9 +732,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -773,9 +744,8 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -786,9 +756,8 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -799,9 +768,8 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -812,9 +780,8 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -825,9 +792,8 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -838,9 +804,8 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -851,9 +816,8 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -864,7 +828,6 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
